--- a/medicine/Premiers secours et secourisme/119_(numéro_d'appel_d'urgence)/119_(numéro_d'appel_d'urgence).xlsx
+++ b/medicine/Premiers secours et secourisme/119_(numéro_d'appel_d'urgence)/119_(numéro_d'appel_d'urgence).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 119 est un numéro d’appel d’urgence utilisé dans plusieurs pays, en particulier en Chine, en Corée du Sud, en France, au Japon, aux Maldives, au Sri Lanka et à Taïwan. Sa destination diffère en fonction du pays d'usage (ainsi le 119 en France permet d'alerter sur les cas de maltraitance sur enfants).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Chine, le 119 est utilisé pour contacter les pompiers.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Corée du Sud</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Corée du Sud, le 119 est utilisé pour contacter les pompiers et les services médicaux d'urgence.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le 119 est utilisé pour contacter le Service national d'accueil téléphonique pour l'enfance en danger[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le 119 est utilisé pour contacter le Service national d'accueil téléphonique pour l'enfance en danger.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon, le 119 est utilisé pour contacter les pompiers.
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Maldives</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux Maldives, le 119 est utilisé pour contacter la police.
 </t>
@@ -648,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,7 +688,9 @@
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Sri Lanka, le 119 est utilisé pour contacter la police.
 </t>
@@ -679,7 +703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>119_(num%C3%A9ro_d%27appel_d%27urgence)</t>
+          <t>119_(numéro_d'appel_d'urgence)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,7 +721,9 @@
           <t>Taïwan</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Taïwan, le 119 est utilisé pour contacter les pompiers et les services médicaux d'urgence.
 </t>
